--- a/cbrunner/Parameters/Parameters_BCFCS_DataSources.xlsx
+++ b/cbrunner/Parameters/Parameters_BCFCS_DataSources.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3A7850-E9DD-4C5B-A2A1-624C264A1EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD851CD-B150-40F6-A49C-17FD619E2BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="864" yWindow="-108" windowWidth="22284" windowHeight="14616" xr2:uid="{5E55FEDC-EEAF-4263-A1FF-FFFB8EAE3397}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="18240" xr2:uid="{5E55FEDC-EEAF-4263-A1FF-FFFB8EAE3397}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
   <si>
     <t>TA_PROTECTED_LANDS_SV</t>
   </si>
@@ -270,13 +270,55 @@
   </si>
   <si>
     <t>NRC_POPULATED_PLACES_1M_SP</t>
+  </si>
+  <si>
+    <t>FWA_WATERSHED_GROUPS_POLY</t>
+  </si>
+  <si>
+    <t>OATS_ALR_POLYS</t>
+  </si>
+  <si>
+    <t>TA_MUNICIPALITIES_SVW</t>
+  </si>
+  <si>
+    <t>FWA_MANMADE_WATERBODIES_POLY</t>
+  </si>
+  <si>
+    <t>HSP_MJR_MINES_PERMTTD_AREAS_SP</t>
+  </si>
+  <si>
+    <t>GBA_TRANSMISSION_LINES_SP</t>
+  </si>
+  <si>
+    <t>BC_MAJOR_CITIES_POINTS_500M</t>
+  </si>
+  <si>
+    <t>WCL_CONSERVATION_AREAS_NGO_SP</t>
+  </si>
+  <si>
+    <t>GSR_AIRPORTS_SVW</t>
+  </si>
+  <si>
+    <t>GSR_GOLF_COURSES_SV</t>
+  </si>
+  <si>
+    <t>GSR_PORTS_TERMINALS_SVW</t>
+  </si>
+  <si>
+    <t>DRP_BCHYDRO_FACILITY_PNTS_SP</t>
+  </si>
+  <si>
+    <t>WHSE_ENVIRONMENTAL_MONITORING</t>
+  </si>
+  <si>
+    <t>NRC_OTHER_LAND_COVER_250K_SP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,12 +343,12 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="BC Sans"/>
+      <name val="Caibri"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="BC Sans"/>
+      <name val="Caibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -649,13 +691,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E269FF7-C4F2-4A6A-8BEB-E020381C4873}">
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.85546875" customWidth="1"/>
     <col min="2" max="2" width="38.5703125" customWidth="1"/>
@@ -663,7 +705,7 @@
     <col min="4" max="4" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -675,8 +717,8 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
         <v>69</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -686,7 +728,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
+      <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
@@ -694,7 +737,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
+      <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
@@ -702,7 +746,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
+      <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
@@ -710,490 +755,605 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
+      <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+    <row r="9" spans="1:4">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="B27" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="4"/>
       <c r="B28" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>62</v>
-      </c>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="4"/>
       <c r="B34" s="4" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="4"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="B40" s="4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="4"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="B41" s="4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="4"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="B42" s="4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
-        <v>7</v>
-      </c>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="B43" s="4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="4"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="B44" s="4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="4"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="B45" s="4" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A46" s="4"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="B46" s="4" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A47" s="4"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="B47" s="4" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" s="4"/>
       <c r="B48" s="4" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A50" s="4"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="B50" s="4" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" s="4"/>
       <c r="B51" s="4" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
-        <v>8</v>
-      </c>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="4"/>
       <c r="B52" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" s="4"/>
       <c r="B53" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" s="4"/>
       <c r="B54" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A56" s="4"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="B56" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" s="4"/>
       <c r="B57" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" s="4"/>
       <c r="B58" s="4" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="C58" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="2:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
+    <row r="75" spans="1:3" ht="15.75">
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
